--- a/data/xlsx/CI.xlsx
+++ b/data/xlsx/CI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark/sites/codeforiati/gov-id-finder-data/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651D1B35-0BB3-EE41-BEEF-B9B998E63EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A71F6FA-CEA3-D94D-B589-D8F929B07178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22820" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,342 +20,306 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>REPRESENTATION NATIONAL</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>PRESIDENCE DE LA REPUBLIQUE</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>CONSEIL ECONOMIQUE, SOCIAL, ENVIRONMENTAL ET CULTUREL</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>GRANDE CHANCELLERIE</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>PRIMATURE ET SERVICES RATTACHES</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>CONSEIL CONSTITUTIONNEL</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>MEDIATEUR DE LA REPUBLIQUE</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>COUR DES COMPTES</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>COMMISSION ELECTORALE INDEPENDANTE</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>MINISTERE DE L'ECONOMIE ET DES FINANCES</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>CHAMBRE NATIONALE DES ROIS ET CHEFS TRADITIONNELS</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>MINISTERE DE PETROLE, DE L'ENERGIE ET DES ENERGIES RENOUVELABLES</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>MINISTERE DE L'INTERIEUR ET DE LA SECURTIE</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>MINISTERE DE LA FONCTION PUBLIQUE</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>MINISTERE DE LA JUSTUVE ET DES DROITS DE L'HOME</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>MINISTERE DE L'AGRICULTURE ET DU DEVELOPPEMENT RURAL</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>MINISTERE DE LA CONSTRUCTION, DU LOGEMENT ET DE L'URBANISME</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>MINISTERE DU PLAN ET DU DEVELOPPMENT</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>MINISTERE DE L'EQUIPEMENT ET DE L'ENTRETIEN ROUTIER</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>MINISTERE DE L'EDUCATION NATIONALE, DE L'ENSEIGNEMENT TECHNIQUE ET DE LA FORMATION PROFESSIONNELLE</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>MINISTERE DE LA MODERNISATION DE L'ADMINISTRATION ET DE L'INOVATION DU SERVICE PUBLIC</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>MINISTERE DE LA SANTE ET DE L'HYGIENE PUBLIQUE</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>MINISTERE DES AFFAIRES ETRANGERES</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>MINISTERE D'ETAT, MINISTERE DE LA DEFNSE</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>MINISTERE DE LA COMMUNICATION ET DES MEDIAS</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>MINISTERE DE L'ENVIRONNEMENT ET DU DEVELOPPEMENT DURABLE</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>MINISTERE DES SPORTS</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>SECRETARIAT D'ETAT AUPRES DU PREMIER MINISTRE, CHARGE DU BUDGET ET DU PORTEFUILLE DE L'ETAT</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>MINISTERE DES EAUX ET FORETS</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>MINISTERE DE LA VILLE</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>MINISTERE DE L'ENSEIGNEMENT SUPERIEUR ET DE LA RECHERCHE SCIENTIFIQUE</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>MINISTERE DE LA CULTURE ET DE LA FRANCOPHONIE</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>MINISTERE DU COMMERCE, DE L'INDUSTRIE ET DE LA PROMOTION DES PME</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>MINISTERE DES MINES ET DE LA GEOLOGIE</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>MINISTERE DU TOURISME ET DES LOISIRS</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>MINISTERE DES TRANSPORTS</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>MINISTERE DE L;ARTISANAT</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>MINISTERE DE LA FEMME, DE LA FAMILLE ET DE L'ENFANT</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>MINISTERE AUPRES DU PR CHARGES DES RELATIONS AVEC LES INSTITUTIONS</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>MINISTERE DE LA SOLIDARITE, DE LA COHESION SOCIALE ET DE LA LUTTE CONTRE LA PAUVRETE</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>COUR SUPREME</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>MINISTERE DE L'ECONOMIE NUMRIQUE ET DE LA POSTE</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>MINISTERE DE LA PROMOTION DE LA JEUNESSE ET DE L'EMPLOI DES JEUNES</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>MINISTERE DE L'HYRAULIQUE</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>MINISTERE DES RESSOURCES ANIMALES ET HALITIQUES</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>SECRETARIAT D'ETAT AUPRES DU PREMIER MINISTRE CHARGE DE LA PROMOTION DE L'INVESTISSEMENT PRIVE</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>SECRETARIAT D'ETAT CHARGE DU SERVICE CIVIQUE</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>SECRETARAIT D'ETAT AUPRES DU MINSTRE DU COMMERCE, DE LINDUSTRIE ET DE LA PROMOTION DES PME, CHARGE DE LA PROMOTION DES PME</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>SECRETARAIT D'ETAT AUPRES DU GARDE DES SCEAUX, MINISTRE DE LA JUSTICE ET DES DROITS DE L'HOMME, CHARGE DES DROITS DE L'HOMME</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>MINISTERE DE L'INTEGRATION AFRICAINE ET DES IVOIRIENS DE L'EXTERIEUR</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>PARQUET GENERAL</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>MINISTERE DE L'ASSAINISSMENT ET DE LA SALUBRITE</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>MINISTERE DE L'EMPLOI ET DE LA PROTECTION SOCIALE</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>SENAT</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>PARQUET GENERAL PRES LA COUR DES COMPTES</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>code</t>
   </si>
   <si>
     <t>name_fr</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Représentation Nationale</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>Sénat</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Présidence de la République</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>Conseil Economique, Social, Environnemental et Culturel</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>Conseil Constitutionnel</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Grande Chancellerie</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>Primature et Services Rattachés (Premier Ministre, Chef du Gouvernement, Ministre des Sports et du Cadre de Vie)</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>Médiateur de la République</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Commission Electorale Indépendante</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>Chambre Nationale des Rois et Chefs Traditionnels</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>Cour de Cassation</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>Cour des Comptes</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>Parquet Général</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>Parquet Général près la Cour des Comptes</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>Conseil d'Etat</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>Haut Représentant du Président de la République</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Conseil Supérieur de la Magistrature</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>Ministère d'Etat, Ministère de la Défense</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>Ministère d'Etat, Ministère de l'Agriculture, du Développement Rural et des Productions Vivrières</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>Ministère d'Etat, Ministère de la Fonction Publique et de la Modernisation de l'Administration</t>
+  </si>
+  <si>
+    <t>321</t>
+  </si>
+  <si>
+    <t>Ministère des Affaires Etrangères, de l'Intégration Africaine et des Ivoiriens de l'Extérieur</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>Ministère des Finances et du Budget</t>
+  </si>
+  <si>
+    <t>323</t>
+  </si>
+  <si>
+    <t>Ministère de l'Intérieur et de la Sécurité</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>Ministère de la Justice et des Droits de l'Homme</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>Ministère de l'Economie, du Plan et du Développement</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>Ministère de l'Equipement et de l'Entretien Routier</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>Ministère de l'Education Nationale et de l'Alphabétisation</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>Ministère de l'Enseignement Supérieur et de la Recherche Scientifique</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>Ministère de l'Enseignement Technique, de la Formation Professionnelle et de l'Apprentissage</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
+    <t>Ministère de la Santé, de l'Hygiène Publique et de la Couverture Maladie Universelle</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>Ministère de la Communication</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>Ministère des Transports</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>Ministère de l'Environnement, du Développement Durable et de la Transition Ecologique</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>Ministère des Eaux et Forêts</t>
+  </si>
+  <si>
+    <t>346</t>
+  </si>
+  <si>
+    <t>Ministère de la Culture et de la Francophonie</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>Ministère du Commerce et de l'Industrie</t>
+  </si>
+  <si>
+    <t>348</t>
+  </si>
+  <si>
+    <t>Ministère des Mines, du Pétrole et de l'Energie</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>Ministère du Tourisme et des Loisirs</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>Ministère des Ressources Animales et Halieutiques</t>
+  </si>
+  <si>
+    <t>352</t>
+  </si>
+  <si>
+    <t>Ministère de la Femme, de la Famille et de l'Enfant</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>Ministère de la Transition Numérique et de la Digitalisation</t>
+  </si>
+  <si>
+    <t>357</t>
+  </si>
+  <si>
+    <t>Ministère de la Promotion de la Jeunesse, de l'Insertion Professionnelle et du Service Civique</t>
+  </si>
+  <si>
+    <t>358</t>
+  </si>
+  <si>
+    <t>Ministère de la Construction, du Logement et de l'Urbanisme</t>
+  </si>
+  <si>
+    <t>362</t>
+  </si>
+  <si>
+    <t>Ministère de l'Emploi et de la Protection Sociale</t>
+  </si>
+  <si>
+    <t>366</t>
+  </si>
+  <si>
+    <t>Ministère de l'Hydraulique,de l'Assainissement et de la Salubrité</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>Ministère de la Cohésion Nationale, de la Solidarité et de la Lutte Contre la Pauvreté</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>Ministère du Patrimoine, du Portefeuille de l'Etat et des Entreprises Publiques</t>
+  </si>
+  <si>
+    <t>439</t>
+  </si>
+  <si>
+    <t>Ministère délégué auprès du Ministre des Affaires Etrangères, de l'Intégration Africaine et des Ivoiriens de l'Extérieur, chargé de l'Intégration Africaine et des Ivoiriens de l'Extérieur</t>
+  </si>
+  <si>
+    <t>444</t>
+  </si>
+  <si>
+    <t>Ministère délégué auprès du Premier Ministre, Ministre des Sports et du Cadre de Vie, chargé des Sports et du Cadre de Vie</t>
   </si>
 </sst>
 </file>
@@ -719,460 +683,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="90.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>108</v>
-      </c>
-      <c r="B56" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
